--- a/artfynd/A 38950-2021.xlsx
+++ b/artfynd/A 38950-2021.xlsx
@@ -680,10 +680,10 @@
     </row>
     <row r="2">
       <c r="A2" t="n">
-        <v>54268151</v>
+        <v>55948748</v>
       </c>
       <c r="B2" t="n">
-        <v>85703</v>
+        <v>89392</v>
       </c>
       <c r="C2" t="inlineStr">
         <is>
@@ -696,21 +696,21 @@
         </is>
       </c>
       <c r="E2" t="n">
-        <v>510</v>
+        <v>1202</v>
       </c>
       <c r="F2" t="inlineStr">
         <is>
-          <t>Doftskinn</t>
+          <t>Ullticka</t>
         </is>
       </c>
       <c r="G2" t="inlineStr">
         <is>
-          <t>Cystostereum murrayi</t>
+          <t>Phellinidium ferrugineofuscum</t>
         </is>
       </c>
       <c r="H2" t="inlineStr">
         <is>
-          <t>(Berk. &amp; M.A. Curtis.) Pouzar</t>
+          <t>(P.Karst.) Fiasson &amp; Niemelä</t>
         </is>
       </c>
       <c r="I2" t="inlineStr"/>
@@ -720,13 +720,13 @@
         </is>
       </c>
       <c r="Q2" t="n">
-        <v>661257.6421172261</v>
+        <v>661305.0618644893</v>
       </c>
       <c r="R2" t="n">
-        <v>6982794.92700564</v>
+        <v>6983091.856169289</v>
       </c>
       <c r="S2" t="n">
-        <v>25</v>
+        <v>10</v>
       </c>
       <c r="T2" t="inlineStr">
         <is>
@@ -750,7 +750,7 @@
       </c>
       <c r="Y2" t="inlineStr">
         <is>
-          <t>2015-06-16</t>
+          <t>2015-09-21</t>
         </is>
       </c>
       <c r="Z2" t="inlineStr">
@@ -760,7 +760,7 @@
       </c>
       <c r="AA2" t="inlineStr">
         <is>
-          <t>2015-06-16</t>
+          <t>2015-09-21</t>
         </is>
       </c>
       <c r="AB2" t="inlineStr">
@@ -780,22 +780,26 @@
       <c r="AT2" t="inlineStr"/>
       <c r="AW2" t="inlineStr">
         <is>
-          <t>Jörgen Sundin</t>
+          <t>Mikael Gudrunsson</t>
         </is>
       </c>
       <c r="AX2" t="inlineStr">
         <is>
-          <t>Jörgen Sundin</t>
-        </is>
-      </c>
-      <c r="AY2" t="inlineStr"/>
+          <t>Mikael Gudrunsson</t>
+        </is>
+      </c>
+      <c r="AY2" t="inlineStr">
+        <is>
+          <t>Naturvärdesinventering Y-län</t>
+        </is>
+      </c>
     </row>
     <row r="3">
       <c r="A3" t="n">
-        <v>55948748</v>
+        <v>56819664</v>
       </c>
       <c r="B3" t="n">
-        <v>89392</v>
+        <v>85703</v>
       </c>
       <c r="C3" t="inlineStr">
         <is>
@@ -808,21 +812,21 @@
         </is>
       </c>
       <c r="E3" t="n">
-        <v>1202</v>
+        <v>510</v>
       </c>
       <c r="F3" t="inlineStr">
         <is>
-          <t>Ullticka</t>
+          <t>Doftskinn</t>
         </is>
       </c>
       <c r="G3" t="inlineStr">
         <is>
-          <t>Phellinidium ferrugineofuscum</t>
+          <t>Cystostereum murrayi</t>
         </is>
       </c>
       <c r="H3" t="inlineStr">
         <is>
-          <t>(P.Karst.) Fiasson &amp; Niemelä</t>
+          <t>(Berk. &amp; M.A. Curtis.) Pouzar</t>
         </is>
       </c>
       <c r="I3" t="inlineStr"/>
@@ -832,10 +836,10 @@
         </is>
       </c>
       <c r="Q3" t="n">
-        <v>661305.0618644893</v>
+        <v>661446.5123686416</v>
       </c>
       <c r="R3" t="n">
-        <v>6983091.856169289</v>
+        <v>6983204.644808331</v>
       </c>
       <c r="S3" t="n">
         <v>10</v>
@@ -862,7 +866,7 @@
       </c>
       <c r="Y3" t="inlineStr">
         <is>
-          <t>2015-09-21</t>
+          <t>2016-01-31</t>
         </is>
       </c>
       <c r="Z3" t="inlineStr">
@@ -872,7 +876,7 @@
       </c>
       <c r="AA3" t="inlineStr">
         <is>
-          <t>2015-09-21</t>
+          <t>2016-01-31</t>
         </is>
       </c>
       <c r="AB3" t="inlineStr">
@@ -888,27 +892,33 @@
       </c>
       <c r="AG3" t="b">
         <v>0</v>
+      </c>
+      <c r="AI3" t="inlineStr">
+        <is>
+          <t>Grannaturskog</t>
+        </is>
+      </c>
+      <c r="AO3" t="inlineStr">
+        <is>
+          <t>Granlåga</t>
+        </is>
       </c>
       <c r="AT3" t="inlineStr"/>
       <c r="AW3" t="inlineStr">
         <is>
-          <t>Mikael Gudrunsson</t>
+          <t>Jörgen Sundin</t>
         </is>
       </c>
       <c r="AX3" t="inlineStr">
         <is>
-          <t>Mikael Gudrunsson</t>
-        </is>
-      </c>
-      <c r="AY3" t="inlineStr">
-        <is>
-          <t>Naturvärdesinventering Y-län</t>
-        </is>
-      </c>
+          <t>Jörgen Sundin</t>
+        </is>
+      </c>
+      <c r="AY3" t="inlineStr"/>
     </row>
     <row r="4">
       <c r="A4" t="n">
-        <v>56512393</v>
+        <v>56819681</v>
       </c>
       <c r="B4" t="n">
         <v>77575</v>
@@ -948,10 +958,10 @@
         </is>
       </c>
       <c r="Q4" t="n">
-        <v>661039.952110732</v>
+        <v>661119.4401709253</v>
       </c>
       <c r="R4" t="n">
-        <v>6982912.312919412</v>
+        <v>6983290.604943984</v>
       </c>
       <c r="S4" t="n">
         <v>10</v>
@@ -978,7 +988,7 @@
       </c>
       <c r="Y4" t="inlineStr">
         <is>
-          <t>2015-12-30</t>
+          <t>2016-01-31</t>
         </is>
       </c>
       <c r="Z4" t="inlineStr">
@@ -988,7 +998,7 @@
       </c>
       <c r="AA4" t="inlineStr">
         <is>
-          <t>2015-12-30</t>
+          <t>2016-01-31</t>
         </is>
       </c>
       <c r="AB4" t="inlineStr">
@@ -996,6 +1006,11 @@
           <t>00:00</t>
         </is>
       </c>
+      <c r="AC4" t="inlineStr">
+        <is>
+          <t>Rikligt</t>
+        </is>
+      </c>
       <c r="AD4" t="b">
         <v>0</v>
       </c>
@@ -1005,9 +1020,14 @@
       <c r="AG4" t="b">
         <v>0</v>
       </c>
+      <c r="AI4" t="inlineStr">
+        <is>
+          <t>Myrkant</t>
+        </is>
+      </c>
       <c r="AO4" t="inlineStr">
         <is>
-          <t>Vindfälle av tall</t>
+          <t>Gran i myrkant</t>
         </is>
       </c>
       <c r="AT4" t="inlineStr"/>
@@ -1025,10 +1045,10 @@
     </row>
     <row r="5">
       <c r="A5" t="n">
-        <v>56819687</v>
+        <v>73768368</v>
       </c>
       <c r="B5" t="n">
-        <v>89392</v>
+        <v>77506</v>
       </c>
       <c r="C5" t="inlineStr">
         <is>
@@ -1041,21 +1061,21 @@
         </is>
       </c>
       <c r="E5" t="n">
-        <v>1202</v>
+        <v>6425</v>
       </c>
       <c r="F5" t="inlineStr">
         <is>
-          <t>Ullticka</t>
+          <t>Garnlav</t>
         </is>
       </c>
       <c r="G5" t="inlineStr">
         <is>
-          <t>Phellinidium ferrugineofuscum</t>
+          <t>Alectoria sarmentosa</t>
         </is>
       </c>
       <c r="H5" t="inlineStr">
         <is>
-          <t>(P.Karst.) Fiasson &amp; Niemelä</t>
+          <t>(Ach.) Ach.</t>
         </is>
       </c>
       <c r="I5" t="inlineStr"/>
@@ -1065,10 +1085,10 @@
         </is>
       </c>
       <c r="Q5" t="n">
-        <v>661403.3415067785</v>
+        <v>661186.3500573931</v>
       </c>
       <c r="R5" t="n">
-        <v>6982785.260969135</v>
+        <v>6983220.956949593</v>
       </c>
       <c r="S5" t="n">
         <v>10</v>
@@ -1095,7 +1115,7 @@
       </c>
       <c r="Y5" t="inlineStr">
         <is>
-          <t>2016-01-31</t>
+          <t>2017-06-04</t>
         </is>
       </c>
       <c r="Z5" t="inlineStr">
@@ -1105,7 +1125,7 @@
       </c>
       <c r="AA5" t="inlineStr">
         <is>
-          <t>2016-01-31</t>
+          <t>2017-06-04</t>
         </is>
       </c>
       <c r="AB5" t="inlineStr">
@@ -1113,6 +1133,11 @@
           <t>00:00</t>
         </is>
       </c>
+      <c r="AC5" t="inlineStr">
+        <is>
+          <t>Gammelgran i myrkant</t>
+        </is>
+      </c>
       <c r="AD5" t="b">
         <v>0</v>
       </c>
@@ -1121,11 +1146,6 @@
       </c>
       <c r="AG5" t="b">
         <v>0</v>
-      </c>
-      <c r="AO5" t="inlineStr">
-        <is>
-          <t>Granlåga</t>
-        </is>
       </c>
       <c r="AT5" t="inlineStr"/>
       <c r="AW5" t="inlineStr">
@@ -1142,10 +1162,10 @@
     </row>
     <row r="6">
       <c r="A6" t="n">
-        <v>56819664</v>
+        <v>73768370</v>
       </c>
       <c r="B6" t="n">
-        <v>85703</v>
+        <v>77575</v>
       </c>
       <c r="C6" t="inlineStr">
         <is>
@@ -1154,25 +1174,25 @@
       </c>
       <c r="D6" t="inlineStr">
         <is>
-          <t>NT</t>
+          <t>VU</t>
         </is>
       </c>
       <c r="E6" t="n">
-        <v>510</v>
+        <v>637</v>
       </c>
       <c r="F6" t="inlineStr">
         <is>
-          <t>Doftskinn</t>
+          <t>Ringlav</t>
         </is>
       </c>
       <c r="G6" t="inlineStr">
         <is>
-          <t>Cystostereum murrayi</t>
+          <t>Evernia divaricata</t>
         </is>
       </c>
       <c r="H6" t="inlineStr">
         <is>
-          <t>(Berk. &amp; M.A. Curtis.) Pouzar</t>
+          <t>(L.) Ach.</t>
         </is>
       </c>
       <c r="I6" t="inlineStr"/>
@@ -1182,10 +1202,10 @@
         </is>
       </c>
       <c r="Q6" t="n">
-        <v>661446.5123686416</v>
+        <v>661250.5804675129</v>
       </c>
       <c r="R6" t="n">
-        <v>6983204.644808331</v>
+        <v>6983196.318054067</v>
       </c>
       <c r="S6" t="n">
         <v>10</v>
@@ -1212,7 +1232,7 @@
       </c>
       <c r="Y6" t="inlineStr">
         <is>
-          <t>2016-01-31</t>
+          <t>2017-06-04</t>
         </is>
       </c>
       <c r="Z6" t="inlineStr">
@@ -1222,7 +1242,7 @@
       </c>
       <c r="AA6" t="inlineStr">
         <is>
-          <t>2016-01-31</t>
+          <t>2017-06-04</t>
         </is>
       </c>
       <c r="AB6" t="inlineStr">
@@ -1230,6 +1250,11 @@
           <t>00:00</t>
         </is>
       </c>
+      <c r="AC6" t="inlineStr">
+        <is>
+          <t>Gran i sumpskog</t>
+        </is>
+      </c>
       <c r="AD6" t="b">
         <v>0</v>
       </c>
@@ -1238,16 +1263,6 @@
       </c>
       <c r="AG6" t="b">
         <v>0</v>
-      </c>
-      <c r="AI6" t="inlineStr">
-        <is>
-          <t>Grannaturskog</t>
-        </is>
-      </c>
-      <c r="AO6" t="inlineStr">
-        <is>
-          <t>Granlåga</t>
-        </is>
       </c>
       <c r="AT6" t="inlineStr"/>
       <c r="AW6" t="inlineStr">
@@ -1264,10 +1279,10 @@
     </row>
     <row r="7">
       <c r="A7" t="n">
-        <v>56819688</v>
+        <v>54268151</v>
       </c>
       <c r="B7" t="n">
-        <v>89356</v>
+        <v>85703</v>
       </c>
       <c r="C7" t="inlineStr">
         <is>
@@ -1276,25 +1291,25 @@
       </c>
       <c r="D7" t="inlineStr">
         <is>
-          <t>LC</t>
+          <t>NT</t>
         </is>
       </c>
       <c r="E7" t="n">
-        <v>5447</v>
+        <v>510</v>
       </c>
       <c r="F7" t="inlineStr">
         <is>
-          <t>Vedticka</t>
+          <t>Doftskinn</t>
         </is>
       </c>
       <c r="G7" t="inlineStr">
         <is>
-          <t>Fuscoporia viticola</t>
+          <t>Cystostereum murrayi</t>
         </is>
       </c>
       <c r="H7" t="inlineStr">
         <is>
-          <t>(Schwein.) Murrill</t>
+          <t>(Berk. &amp; M.A. Curtis.) Pouzar</t>
         </is>
       </c>
       <c r="I7" t="inlineStr"/>
@@ -1304,13 +1319,13 @@
         </is>
       </c>
       <c r="Q7" t="n">
-        <v>661324.3496584925</v>
+        <v>661257.6421172261</v>
       </c>
       <c r="R7" t="n">
-        <v>6982821.939638772</v>
+        <v>6982794.92700564</v>
       </c>
       <c r="S7" t="n">
-        <v>10</v>
+        <v>25</v>
       </c>
       <c r="T7" t="inlineStr">
         <is>
@@ -1334,7 +1349,7 @@
       </c>
       <c r="Y7" t="inlineStr">
         <is>
-          <t>2016-01-31</t>
+          <t>2015-06-16</t>
         </is>
       </c>
       <c r="Z7" t="inlineStr">
@@ -1344,7 +1359,7 @@
       </c>
       <c r="AA7" t="inlineStr">
         <is>
-          <t>2016-01-31</t>
+          <t>2015-06-16</t>
         </is>
       </c>
       <c r="AB7" t="inlineStr">
@@ -1360,11 +1375,6 @@
       </c>
       <c r="AG7" t="b">
         <v>0</v>
-      </c>
-      <c r="AO7" t="inlineStr">
-        <is>
-          <t>Granlåga</t>
-        </is>
       </c>
       <c r="AT7" t="inlineStr"/>
       <c r="AW7" t="inlineStr">
@@ -1381,7 +1391,7 @@
     </row>
     <row r="8">
       <c r="A8" t="n">
-        <v>56819680</v>
+        <v>56512393</v>
       </c>
       <c r="B8" t="n">
         <v>77575</v>
@@ -1421,10 +1431,10 @@
         </is>
       </c>
       <c r="Q8" t="n">
-        <v>661319.2940217908</v>
+        <v>661039.952110732</v>
       </c>
       <c r="R8" t="n">
-        <v>6982785.663003451</v>
+        <v>6982912.312919412</v>
       </c>
       <c r="S8" t="n">
         <v>10</v>
@@ -1451,7 +1461,7 @@
       </c>
       <c r="Y8" t="inlineStr">
         <is>
-          <t>2016-01-31</t>
+          <t>2015-12-30</t>
         </is>
       </c>
       <c r="Z8" t="inlineStr">
@@ -1461,7 +1471,7 @@
       </c>
       <c r="AA8" t="inlineStr">
         <is>
-          <t>2016-01-31</t>
+          <t>2015-12-30</t>
         </is>
       </c>
       <c r="AB8" t="inlineStr">
@@ -1480,7 +1490,7 @@
       </c>
       <c r="AO8" t="inlineStr">
         <is>
-          <t>Gran</t>
+          <t>Vindfälle av tall</t>
         </is>
       </c>
       <c r="AT8" t="inlineStr"/>
@@ -1498,10 +1508,10 @@
     </row>
     <row r="9">
       <c r="A9" t="n">
-        <v>56819681</v>
+        <v>56819687</v>
       </c>
       <c r="B9" t="n">
-        <v>77575</v>
+        <v>89392</v>
       </c>
       <c r="C9" t="inlineStr">
         <is>
@@ -1510,25 +1520,25 @@
       </c>
       <c r="D9" t="inlineStr">
         <is>
-          <t>VU</t>
+          <t>NT</t>
         </is>
       </c>
       <c r="E9" t="n">
-        <v>637</v>
+        <v>1202</v>
       </c>
       <c r="F9" t="inlineStr">
         <is>
-          <t>Ringlav</t>
+          <t>Ullticka</t>
         </is>
       </c>
       <c r="G9" t="inlineStr">
         <is>
-          <t>Evernia divaricata</t>
+          <t>Phellinidium ferrugineofuscum</t>
         </is>
       </c>
       <c r="H9" t="inlineStr">
         <is>
-          <t>(L.) Ach.</t>
+          <t>(P.Karst.) Fiasson &amp; Niemelä</t>
         </is>
       </c>
       <c r="I9" t="inlineStr"/>
@@ -1538,10 +1548,10 @@
         </is>
       </c>
       <c r="Q9" t="n">
-        <v>661119.4401709253</v>
+        <v>661403.3415067785</v>
       </c>
       <c r="R9" t="n">
-        <v>6983290.604943984</v>
+        <v>6982785.260969135</v>
       </c>
       <c r="S9" t="n">
         <v>10</v>
@@ -1586,11 +1596,6 @@
           <t>00:00</t>
         </is>
       </c>
-      <c r="AC9" t="inlineStr">
-        <is>
-          <t>Rikligt</t>
-        </is>
-      </c>
       <c r="AD9" t="b">
         <v>0</v>
       </c>
@@ -1600,14 +1605,9 @@
       <c r="AG9" t="b">
         <v>0</v>
       </c>
-      <c r="AI9" t="inlineStr">
-        <is>
-          <t>Myrkant</t>
-        </is>
-      </c>
       <c r="AO9" t="inlineStr">
         <is>
-          <t>Gran i myrkant</t>
+          <t>Granlåga</t>
         </is>
       </c>
       <c r="AT9" t="inlineStr"/>
@@ -1625,10 +1625,10 @@
     </row>
     <row r="10">
       <c r="A10" t="n">
-        <v>61001346</v>
+        <v>56819688</v>
       </c>
       <c r="B10" t="n">
-        <v>89406</v>
+        <v>89356</v>
       </c>
       <c r="C10" t="inlineStr">
         <is>
@@ -1637,25 +1637,25 @@
       </c>
       <c r="D10" t="inlineStr">
         <is>
-          <t>NT</t>
+          <t>LC</t>
         </is>
       </c>
       <c r="E10" t="n">
-        <v>1204</v>
+        <v>5447</v>
       </c>
       <c r="F10" t="inlineStr">
         <is>
-          <t>Gränsticka</t>
+          <t>Vedticka</t>
         </is>
       </c>
       <c r="G10" t="inlineStr">
         <is>
-          <t>Phellopilus nigrolimitatus</t>
+          <t>Fuscoporia viticola</t>
         </is>
       </c>
       <c r="H10" t="inlineStr">
         <is>
-          <t>(Romell) Niemelä, T.Wagner &amp; M.Fisch.</t>
+          <t>(Schwein.) Murrill</t>
         </is>
       </c>
       <c r="I10" t="inlineStr"/>
@@ -1665,10 +1665,10 @@
         </is>
       </c>
       <c r="Q10" t="n">
-        <v>661259.8128579003</v>
+        <v>661324.3496584925</v>
       </c>
       <c r="R10" t="n">
-        <v>6982769.496407314</v>
+        <v>6982821.939638772</v>
       </c>
       <c r="S10" t="n">
         <v>10</v>
@@ -1695,7 +1695,7 @@
       </c>
       <c r="Y10" t="inlineStr">
         <is>
-          <t>2016-05-27</t>
+          <t>2016-01-31</t>
         </is>
       </c>
       <c r="Z10" t="inlineStr">
@@ -1705,7 +1705,7 @@
       </c>
       <c r="AA10" t="inlineStr">
         <is>
-          <t>2016-05-27</t>
+          <t>2016-01-31</t>
         </is>
       </c>
       <c r="AB10" t="inlineStr">
@@ -1742,10 +1742,10 @@
     </row>
     <row r="11">
       <c r="A11" t="n">
-        <v>61001350</v>
+        <v>56819680</v>
       </c>
       <c r="B11" t="n">
-        <v>85703</v>
+        <v>77575</v>
       </c>
       <c r="C11" t="inlineStr">
         <is>
@@ -1754,25 +1754,25 @@
       </c>
       <c r="D11" t="inlineStr">
         <is>
-          <t>NT</t>
+          <t>VU</t>
         </is>
       </c>
       <c r="E11" t="n">
-        <v>510</v>
+        <v>637</v>
       </c>
       <c r="F11" t="inlineStr">
         <is>
-          <t>Doftskinn</t>
+          <t>Ringlav</t>
         </is>
       </c>
       <c r="G11" t="inlineStr">
         <is>
-          <t>Cystostereum murrayi</t>
+          <t>Evernia divaricata</t>
         </is>
       </c>
       <c r="H11" t="inlineStr">
         <is>
-          <t>(Berk. &amp; M.A. Curtis.) Pouzar</t>
+          <t>(L.) Ach.</t>
         </is>
       </c>
       <c r="I11" t="inlineStr"/>
@@ -1782,10 +1782,10 @@
         </is>
       </c>
       <c r="Q11" t="n">
-        <v>661461.9424078782</v>
+        <v>661319.2940217908</v>
       </c>
       <c r="R11" t="n">
-        <v>6982736.172976599</v>
+        <v>6982785.663003451</v>
       </c>
       <c r="S11" t="n">
         <v>10</v>
@@ -1812,7 +1812,7 @@
       </c>
       <c r="Y11" t="inlineStr">
         <is>
-          <t>2016-05-27</t>
+          <t>2016-01-31</t>
         </is>
       </c>
       <c r="Z11" t="inlineStr">
@@ -1822,7 +1822,7 @@
       </c>
       <c r="AA11" t="inlineStr">
         <is>
-          <t>2016-05-27</t>
+          <t>2016-01-31</t>
         </is>
       </c>
       <c r="AB11" t="inlineStr">
@@ -1841,7 +1841,7 @@
       </c>
       <c r="AO11" t="inlineStr">
         <is>
-          <t>Toppbruten grantorraka</t>
+          <t>Gran</t>
         </is>
       </c>
       <c r="AT11" t="inlineStr"/>
@@ -1859,10 +1859,10 @@
     </row>
     <row r="12">
       <c r="A12" t="n">
-        <v>61001348</v>
+        <v>61001346</v>
       </c>
       <c r="B12" t="n">
-        <v>89356</v>
+        <v>89406</v>
       </c>
       <c r="C12" t="inlineStr">
         <is>
@@ -1871,25 +1871,25 @@
       </c>
       <c r="D12" t="inlineStr">
         <is>
-          <t>LC</t>
+          <t>NT</t>
         </is>
       </c>
       <c r="E12" t="n">
-        <v>5447</v>
+        <v>1204</v>
       </c>
       <c r="F12" t="inlineStr">
         <is>
-          <t>Vedticka</t>
+          <t>Gränsticka</t>
         </is>
       </c>
       <c r="G12" t="inlineStr">
         <is>
-          <t>Fuscoporia viticola</t>
+          <t>Phellopilus nigrolimitatus</t>
         </is>
       </c>
       <c r="H12" t="inlineStr">
         <is>
-          <t>(Schwein.) Murrill</t>
+          <t>(Romell) Niemelä, T.Wagner &amp; M.Fisch.</t>
         </is>
       </c>
       <c r="I12" t="inlineStr"/>
@@ -1899,10 +1899,10 @@
         </is>
       </c>
       <c r="Q12" t="n">
-        <v>661327.4710092416</v>
+        <v>661259.8128579003</v>
       </c>
       <c r="R12" t="n">
-        <v>6982823.462128288</v>
+        <v>6982769.496407314</v>
       </c>
       <c r="S12" t="n">
         <v>10</v>
@@ -1976,10 +1976,10 @@
     </row>
     <row r="13">
       <c r="A13" t="n">
-        <v>61001347</v>
+        <v>61001350</v>
       </c>
       <c r="B13" t="n">
-        <v>89410</v>
+        <v>85703</v>
       </c>
       <c r="C13" t="inlineStr">
         <is>
@@ -1992,21 +1992,21 @@
         </is>
       </c>
       <c r="E13" t="n">
-        <v>5432</v>
+        <v>510</v>
       </c>
       <c r="F13" t="inlineStr">
         <is>
-          <t>Granticka</t>
+          <t>Doftskinn</t>
         </is>
       </c>
       <c r="G13" t="inlineStr">
         <is>
-          <t>Porodaedalea chrysoloma</t>
+          <t>Cystostereum murrayi</t>
         </is>
       </c>
       <c r="H13" t="inlineStr">
         <is>
-          <t>(Fr.) Fiasson &amp; Niemelä</t>
+          <t>(Berk. &amp; M.A. Curtis.) Pouzar</t>
         </is>
       </c>
       <c r="I13" t="inlineStr"/>
@@ -2016,10 +2016,10 @@
         </is>
       </c>
       <c r="Q13" t="n">
-        <v>661308.1689400133</v>
+        <v>661461.9424078782</v>
       </c>
       <c r="R13" t="n">
-        <v>6982844.396734924</v>
+        <v>6982736.172976599</v>
       </c>
       <c r="S13" t="n">
         <v>10</v>
@@ -2075,7 +2075,7 @@
       </c>
       <c r="AO13" t="inlineStr">
         <is>
-          <t>Granlåga i hyggeskant</t>
+          <t>Toppbruten grantorraka</t>
         </is>
       </c>
       <c r="AT13" t="inlineStr"/>
@@ -2093,10 +2093,10 @@
     </row>
     <row r="14">
       <c r="A14" t="n">
-        <v>62589587</v>
+        <v>61001348</v>
       </c>
       <c r="B14" t="n">
-        <v>77541</v>
+        <v>89356</v>
       </c>
       <c r="C14" t="inlineStr">
         <is>
@@ -2105,25 +2105,25 @@
       </c>
       <c r="D14" t="inlineStr">
         <is>
-          <t>NT</t>
+          <t>LC</t>
         </is>
       </c>
       <c r="E14" t="n">
-        <v>185</v>
+        <v>5447</v>
       </c>
       <c r="F14" t="inlineStr">
         <is>
-          <t>Violettgrå tagellav</t>
+          <t>Vedticka</t>
         </is>
       </c>
       <c r="G14" t="inlineStr">
         <is>
-          <t>Bryoria nadvornikiana</t>
+          <t>Fuscoporia viticola</t>
         </is>
       </c>
       <c r="H14" t="inlineStr">
         <is>
-          <t>(Gyeln.) Brodo &amp; D.Hawksw.</t>
+          <t>(Schwein.) Murrill</t>
         </is>
       </c>
       <c r="I14" t="inlineStr"/>
@@ -2133,10 +2133,10 @@
         </is>
       </c>
       <c r="Q14" t="n">
-        <v>661151.3102577352</v>
+        <v>661327.4710092416</v>
       </c>
       <c r="R14" t="n">
-        <v>6982885.892533752</v>
+        <v>6982823.462128288</v>
       </c>
       <c r="S14" t="n">
         <v>10</v>
@@ -2163,7 +2163,7 @@
       </c>
       <c r="Y14" t="inlineStr">
         <is>
-          <t>2016-08-13</t>
+          <t>2016-05-27</t>
         </is>
       </c>
       <c r="Z14" t="inlineStr">
@@ -2173,7 +2173,7 @@
       </c>
       <c r="AA14" t="inlineStr">
         <is>
-          <t>2016-08-13</t>
+          <t>2016-05-27</t>
         </is>
       </c>
       <c r="AB14" t="inlineStr">
@@ -2190,9 +2190,9 @@
       <c r="AG14" t="b">
         <v>0</v>
       </c>
-      <c r="AI14" t="inlineStr">
-        <is>
-          <t>Gran</t>
+      <c r="AO14" t="inlineStr">
+        <is>
+          <t>Granlåga</t>
         </is>
       </c>
       <c r="AT14" t="inlineStr"/>
@@ -2210,10 +2210,10 @@
     </row>
     <row r="15">
       <c r="A15" t="n">
-        <v>73768368</v>
+        <v>61001347</v>
       </c>
       <c r="B15" t="n">
-        <v>77506</v>
+        <v>89410</v>
       </c>
       <c r="C15" t="inlineStr">
         <is>
@@ -2226,21 +2226,21 @@
         </is>
       </c>
       <c r="E15" t="n">
-        <v>6425</v>
+        <v>5432</v>
       </c>
       <c r="F15" t="inlineStr">
         <is>
-          <t>Garnlav</t>
+          <t>Granticka</t>
         </is>
       </c>
       <c r="G15" t="inlineStr">
         <is>
-          <t>Alectoria sarmentosa</t>
+          <t>Porodaedalea chrysoloma</t>
         </is>
       </c>
       <c r="H15" t="inlineStr">
         <is>
-          <t>(Ach.) Ach.</t>
+          <t>(Fr.) Fiasson &amp; Niemelä</t>
         </is>
       </c>
       <c r="I15" t="inlineStr"/>
@@ -2250,10 +2250,10 @@
         </is>
       </c>
       <c r="Q15" t="n">
-        <v>661186.3500573931</v>
+        <v>661308.1689400133</v>
       </c>
       <c r="R15" t="n">
-        <v>6983220.956949593</v>
+        <v>6982844.396734924</v>
       </c>
       <c r="S15" t="n">
         <v>10</v>
@@ -2280,7 +2280,7 @@
       </c>
       <c r="Y15" t="inlineStr">
         <is>
-          <t>2017-06-04</t>
+          <t>2016-05-27</t>
         </is>
       </c>
       <c r="Z15" t="inlineStr">
@@ -2290,7 +2290,7 @@
       </c>
       <c r="AA15" t="inlineStr">
         <is>
-          <t>2017-06-04</t>
+          <t>2016-05-27</t>
         </is>
       </c>
       <c r="AB15" t="inlineStr">
@@ -2298,11 +2298,6 @@
           <t>00:00</t>
         </is>
       </c>
-      <c r="AC15" t="inlineStr">
-        <is>
-          <t>Gammelgran i myrkant</t>
-        </is>
-      </c>
       <c r="AD15" t="b">
         <v>0</v>
       </c>
@@ -2311,6 +2306,11 @@
       </c>
       <c r="AG15" t="b">
         <v>0</v>
+      </c>
+      <c r="AO15" t="inlineStr">
+        <is>
+          <t>Granlåga i hyggeskant</t>
+        </is>
       </c>
       <c r="AT15" t="inlineStr"/>
       <c r="AW15" t="inlineStr">
@@ -2327,10 +2327,10 @@
     </row>
     <row r="16">
       <c r="A16" t="n">
-        <v>73768370</v>
+        <v>62589587</v>
       </c>
       <c r="B16" t="n">
-        <v>77575</v>
+        <v>77541</v>
       </c>
       <c r="C16" t="inlineStr">
         <is>
@@ -2339,25 +2339,25 @@
       </c>
       <c r="D16" t="inlineStr">
         <is>
-          <t>VU</t>
+          <t>NT</t>
         </is>
       </c>
       <c r="E16" t="n">
-        <v>637</v>
+        <v>185</v>
       </c>
       <c r="F16" t="inlineStr">
         <is>
-          <t>Ringlav</t>
+          <t>Violettgrå tagellav</t>
         </is>
       </c>
       <c r="G16" t="inlineStr">
         <is>
-          <t>Evernia divaricata</t>
+          <t>Bryoria nadvornikiana</t>
         </is>
       </c>
       <c r="H16" t="inlineStr">
         <is>
-          <t>(L.) Ach.</t>
+          <t>(Gyeln.) Brodo &amp; D.Hawksw.</t>
         </is>
       </c>
       <c r="I16" t="inlineStr"/>
@@ -2367,10 +2367,10 @@
         </is>
       </c>
       <c r="Q16" t="n">
-        <v>661250.5804675129</v>
+        <v>661151.3102577352</v>
       </c>
       <c r="R16" t="n">
-        <v>6983196.318054067</v>
+        <v>6982885.892533752</v>
       </c>
       <c r="S16" t="n">
         <v>10</v>
@@ -2397,7 +2397,7 @@
       </c>
       <c r="Y16" t="inlineStr">
         <is>
-          <t>2017-06-04</t>
+          <t>2016-08-13</t>
         </is>
       </c>
       <c r="Z16" t="inlineStr">
@@ -2407,7 +2407,7 @@
       </c>
       <c r="AA16" t="inlineStr">
         <is>
-          <t>2017-06-04</t>
+          <t>2016-08-13</t>
         </is>
       </c>
       <c r="AB16" t="inlineStr">
@@ -2415,11 +2415,6 @@
           <t>00:00</t>
         </is>
       </c>
-      <c r="AC16" t="inlineStr">
-        <is>
-          <t>Gran i sumpskog</t>
-        </is>
-      </c>
       <c r="AD16" t="b">
         <v>0</v>
       </c>
@@ -2428,6 +2423,11 @@
       </c>
       <c r="AG16" t="b">
         <v>0</v>
+      </c>
+      <c r="AI16" t="inlineStr">
+        <is>
+          <t>Gran</t>
+        </is>
       </c>
       <c r="AT16" t="inlineStr"/>
       <c r="AW16" t="inlineStr">

--- a/artfynd/A 38950-2021.xlsx
+++ b/artfynd/A 38950-2021.xlsx
@@ -680,10 +680,10 @@
     </row>
     <row r="2">
       <c r="A2" t="n">
-        <v>55948748</v>
+        <v>54268151</v>
       </c>
       <c r="B2" t="n">
-        <v>89392</v>
+        <v>85703</v>
       </c>
       <c r="C2" t="inlineStr">
         <is>
@@ -696,21 +696,21 @@
         </is>
       </c>
       <c r="E2" t="n">
-        <v>1202</v>
+        <v>510</v>
       </c>
       <c r="F2" t="inlineStr">
         <is>
-          <t>Ullticka</t>
+          <t>Doftskinn</t>
         </is>
       </c>
       <c r="G2" t="inlineStr">
         <is>
-          <t>Phellinidium ferrugineofuscum</t>
+          <t>Cystostereum murrayi</t>
         </is>
       </c>
       <c r="H2" t="inlineStr">
         <is>
-          <t>(P.Karst.) Fiasson &amp; Niemelä</t>
+          <t>(Berk. &amp; M.A. Curtis.) Pouzar</t>
         </is>
       </c>
       <c r="I2" t="inlineStr"/>
@@ -720,13 +720,13 @@
         </is>
       </c>
       <c r="Q2" t="n">
-        <v>661305.0618644893</v>
+        <v>661257.6421172261</v>
       </c>
       <c r="R2" t="n">
-        <v>6983091.856169289</v>
+        <v>6982794.92700564</v>
       </c>
       <c r="S2" t="n">
-        <v>10</v>
+        <v>25</v>
       </c>
       <c r="T2" t="inlineStr">
         <is>
@@ -750,7 +750,7 @@
       </c>
       <c r="Y2" t="inlineStr">
         <is>
-          <t>2015-09-21</t>
+          <t>2015-06-16</t>
         </is>
       </c>
       <c r="Z2" t="inlineStr">
@@ -760,7 +760,7 @@
       </c>
       <c r="AA2" t="inlineStr">
         <is>
-          <t>2015-09-21</t>
+          <t>2015-06-16</t>
         </is>
       </c>
       <c r="AB2" t="inlineStr">
@@ -780,26 +780,22 @@
       <c r="AT2" t="inlineStr"/>
       <c r="AW2" t="inlineStr">
         <is>
-          <t>Mikael Gudrunsson</t>
+          <t>Jörgen Sundin</t>
         </is>
       </c>
       <c r="AX2" t="inlineStr">
         <is>
-          <t>Mikael Gudrunsson</t>
-        </is>
-      </c>
-      <c r="AY2" t="inlineStr">
-        <is>
-          <t>Naturvärdesinventering Y-län</t>
-        </is>
-      </c>
+          <t>Jörgen Sundin</t>
+        </is>
+      </c>
+      <c r="AY2" t="inlineStr"/>
     </row>
     <row r="3">
       <c r="A3" t="n">
-        <v>56819664</v>
+        <v>55948748</v>
       </c>
       <c r="B3" t="n">
-        <v>85703</v>
+        <v>89392</v>
       </c>
       <c r="C3" t="inlineStr">
         <is>
@@ -812,21 +808,21 @@
         </is>
       </c>
       <c r="E3" t="n">
-        <v>510</v>
+        <v>1202</v>
       </c>
       <c r="F3" t="inlineStr">
         <is>
-          <t>Doftskinn</t>
+          <t>Ullticka</t>
         </is>
       </c>
       <c r="G3" t="inlineStr">
         <is>
-          <t>Cystostereum murrayi</t>
+          <t>Phellinidium ferrugineofuscum</t>
         </is>
       </c>
       <c r="H3" t="inlineStr">
         <is>
-          <t>(Berk. &amp; M.A. Curtis.) Pouzar</t>
+          <t>(P.Karst.) Fiasson &amp; Niemelä</t>
         </is>
       </c>
       <c r="I3" t="inlineStr"/>
@@ -836,10 +832,10 @@
         </is>
       </c>
       <c r="Q3" t="n">
-        <v>661446.5123686416</v>
+        <v>661305.0618644893</v>
       </c>
       <c r="R3" t="n">
-        <v>6983204.644808331</v>
+        <v>6983091.856169289</v>
       </c>
       <c r="S3" t="n">
         <v>10</v>
@@ -866,7 +862,7 @@
       </c>
       <c r="Y3" t="inlineStr">
         <is>
-          <t>2016-01-31</t>
+          <t>2015-09-21</t>
         </is>
       </c>
       <c r="Z3" t="inlineStr">
@@ -876,7 +872,7 @@
       </c>
       <c r="AA3" t="inlineStr">
         <is>
-          <t>2016-01-31</t>
+          <t>2015-09-21</t>
         </is>
       </c>
       <c r="AB3" t="inlineStr">
@@ -892,33 +888,27 @@
       </c>
       <c r="AG3" t="b">
         <v>0</v>
-      </c>
-      <c r="AI3" t="inlineStr">
-        <is>
-          <t>Grannaturskog</t>
-        </is>
-      </c>
-      <c r="AO3" t="inlineStr">
-        <is>
-          <t>Granlåga</t>
-        </is>
       </c>
       <c r="AT3" t="inlineStr"/>
       <c r="AW3" t="inlineStr">
         <is>
-          <t>Jörgen Sundin</t>
+          <t>Mikael Gudrunsson</t>
         </is>
       </c>
       <c r="AX3" t="inlineStr">
         <is>
-          <t>Jörgen Sundin</t>
-        </is>
-      </c>
-      <c r="AY3" t="inlineStr"/>
+          <t>Mikael Gudrunsson</t>
+        </is>
+      </c>
+      <c r="AY3" t="inlineStr">
+        <is>
+          <t>Naturvärdesinventering Y-län</t>
+        </is>
+      </c>
     </row>
     <row r="4">
       <c r="A4" t="n">
-        <v>56819681</v>
+        <v>56512393</v>
       </c>
       <c r="B4" t="n">
         <v>77575</v>
@@ -958,10 +948,10 @@
         </is>
       </c>
       <c r="Q4" t="n">
-        <v>661119.4401709253</v>
+        <v>661039.952110732</v>
       </c>
       <c r="R4" t="n">
-        <v>6983290.604943984</v>
+        <v>6982912.312919412</v>
       </c>
       <c r="S4" t="n">
         <v>10</v>
@@ -988,7 +978,7 @@
       </c>
       <c r="Y4" t="inlineStr">
         <is>
-          <t>2016-01-31</t>
+          <t>2015-12-30</t>
         </is>
       </c>
       <c r="Z4" t="inlineStr">
@@ -998,7 +988,7 @@
       </c>
       <c r="AA4" t="inlineStr">
         <is>
-          <t>2016-01-31</t>
+          <t>2015-12-30</t>
         </is>
       </c>
       <c r="AB4" t="inlineStr">
@@ -1006,11 +996,6 @@
           <t>00:00</t>
         </is>
       </c>
-      <c r="AC4" t="inlineStr">
-        <is>
-          <t>Rikligt</t>
-        </is>
-      </c>
       <c r="AD4" t="b">
         <v>0</v>
       </c>
@@ -1020,14 +1005,9 @@
       <c r="AG4" t="b">
         <v>0</v>
       </c>
-      <c r="AI4" t="inlineStr">
-        <is>
-          <t>Myrkant</t>
-        </is>
-      </c>
       <c r="AO4" t="inlineStr">
         <is>
-          <t>Gran i myrkant</t>
+          <t>Vindfälle av tall</t>
         </is>
       </c>
       <c r="AT4" t="inlineStr"/>
@@ -1045,10 +1025,10 @@
     </row>
     <row r="5">
       <c r="A5" t="n">
-        <v>73768368</v>
+        <v>56819687</v>
       </c>
       <c r="B5" t="n">
-        <v>77506</v>
+        <v>89392</v>
       </c>
       <c r="C5" t="inlineStr">
         <is>
@@ -1061,21 +1041,21 @@
         </is>
       </c>
       <c r="E5" t="n">
-        <v>6425</v>
+        <v>1202</v>
       </c>
       <c r="F5" t="inlineStr">
         <is>
-          <t>Garnlav</t>
+          <t>Ullticka</t>
         </is>
       </c>
       <c r="G5" t="inlineStr">
         <is>
-          <t>Alectoria sarmentosa</t>
+          <t>Phellinidium ferrugineofuscum</t>
         </is>
       </c>
       <c r="H5" t="inlineStr">
         <is>
-          <t>(Ach.) Ach.</t>
+          <t>(P.Karst.) Fiasson &amp; Niemelä</t>
         </is>
       </c>
       <c r="I5" t="inlineStr"/>
@@ -1085,10 +1065,10 @@
         </is>
       </c>
       <c r="Q5" t="n">
-        <v>661186.3500573931</v>
+        <v>661403.3415067785</v>
       </c>
       <c r="R5" t="n">
-        <v>6983220.956949593</v>
+        <v>6982785.260969135</v>
       </c>
       <c r="S5" t="n">
         <v>10</v>
@@ -1115,7 +1095,7 @@
       </c>
       <c r="Y5" t="inlineStr">
         <is>
-          <t>2017-06-04</t>
+          <t>2016-01-31</t>
         </is>
       </c>
       <c r="Z5" t="inlineStr">
@@ -1125,7 +1105,7 @@
       </c>
       <c r="AA5" t="inlineStr">
         <is>
-          <t>2017-06-04</t>
+          <t>2016-01-31</t>
         </is>
       </c>
       <c r="AB5" t="inlineStr">
@@ -1133,11 +1113,6 @@
           <t>00:00</t>
         </is>
       </c>
-      <c r="AC5" t="inlineStr">
-        <is>
-          <t>Gammelgran i myrkant</t>
-        </is>
-      </c>
       <c r="AD5" t="b">
         <v>0</v>
       </c>
@@ -1146,6 +1121,11 @@
       </c>
       <c r="AG5" t="b">
         <v>0</v>
+      </c>
+      <c r="AO5" t="inlineStr">
+        <is>
+          <t>Granlåga</t>
+        </is>
       </c>
       <c r="AT5" t="inlineStr"/>
       <c r="AW5" t="inlineStr">
@@ -1162,10 +1142,10 @@
     </row>
     <row r="6">
       <c r="A6" t="n">
-        <v>73768370</v>
+        <v>56819664</v>
       </c>
       <c r="B6" t="n">
-        <v>77575</v>
+        <v>85703</v>
       </c>
       <c r="C6" t="inlineStr">
         <is>
@@ -1174,25 +1154,25 @@
       </c>
       <c r="D6" t="inlineStr">
         <is>
-          <t>VU</t>
+          <t>NT</t>
         </is>
       </c>
       <c r="E6" t="n">
-        <v>637</v>
+        <v>510</v>
       </c>
       <c r="F6" t="inlineStr">
         <is>
-          <t>Ringlav</t>
+          <t>Doftskinn</t>
         </is>
       </c>
       <c r="G6" t="inlineStr">
         <is>
-          <t>Evernia divaricata</t>
+          <t>Cystostereum murrayi</t>
         </is>
       </c>
       <c r="H6" t="inlineStr">
         <is>
-          <t>(L.) Ach.</t>
+          <t>(Berk. &amp; M.A. Curtis.) Pouzar</t>
         </is>
       </c>
       <c r="I6" t="inlineStr"/>
@@ -1202,10 +1182,10 @@
         </is>
       </c>
       <c r="Q6" t="n">
-        <v>661250.5804675129</v>
+        <v>661446.5123686416</v>
       </c>
       <c r="R6" t="n">
-        <v>6983196.318054067</v>
+        <v>6983204.644808331</v>
       </c>
       <c r="S6" t="n">
         <v>10</v>
@@ -1232,7 +1212,7 @@
       </c>
       <c r="Y6" t="inlineStr">
         <is>
-          <t>2017-06-04</t>
+          <t>2016-01-31</t>
         </is>
       </c>
       <c r="Z6" t="inlineStr">
@@ -1242,7 +1222,7 @@
       </c>
       <c r="AA6" t="inlineStr">
         <is>
-          <t>2017-06-04</t>
+          <t>2016-01-31</t>
         </is>
       </c>
       <c r="AB6" t="inlineStr">
@@ -1250,11 +1230,6 @@
           <t>00:00</t>
         </is>
       </c>
-      <c r="AC6" t="inlineStr">
-        <is>
-          <t>Gran i sumpskog</t>
-        </is>
-      </c>
       <c r="AD6" t="b">
         <v>0</v>
       </c>
@@ -1263,6 +1238,16 @@
       </c>
       <c r="AG6" t="b">
         <v>0</v>
+      </c>
+      <c r="AI6" t="inlineStr">
+        <is>
+          <t>Grannaturskog</t>
+        </is>
+      </c>
+      <c r="AO6" t="inlineStr">
+        <is>
+          <t>Granlåga</t>
+        </is>
       </c>
       <c r="AT6" t="inlineStr"/>
       <c r="AW6" t="inlineStr">
@@ -1279,10 +1264,10 @@
     </row>
     <row r="7">
       <c r="A7" t="n">
-        <v>54268151</v>
+        <v>56819688</v>
       </c>
       <c r="B7" t="n">
-        <v>85703</v>
+        <v>89356</v>
       </c>
       <c r="C7" t="inlineStr">
         <is>
@@ -1291,25 +1276,25 @@
       </c>
       <c r="D7" t="inlineStr">
         <is>
-          <t>NT</t>
+          <t>LC</t>
         </is>
       </c>
       <c r="E7" t="n">
-        <v>510</v>
+        <v>5447</v>
       </c>
       <c r="F7" t="inlineStr">
         <is>
-          <t>Doftskinn</t>
+          <t>Vedticka</t>
         </is>
       </c>
       <c r="G7" t="inlineStr">
         <is>
-          <t>Cystostereum murrayi</t>
+          <t>Fuscoporia viticola</t>
         </is>
       </c>
       <c r="H7" t="inlineStr">
         <is>
-          <t>(Berk. &amp; M.A. Curtis.) Pouzar</t>
+          <t>(Schwein.) Murrill</t>
         </is>
       </c>
       <c r="I7" t="inlineStr"/>
@@ -1319,13 +1304,13 @@
         </is>
       </c>
       <c r="Q7" t="n">
-        <v>661257.6421172261</v>
+        <v>661324.3496584925</v>
       </c>
       <c r="R7" t="n">
-        <v>6982794.92700564</v>
+        <v>6982821.939638772</v>
       </c>
       <c r="S7" t="n">
-        <v>25</v>
+        <v>10</v>
       </c>
       <c r="T7" t="inlineStr">
         <is>
@@ -1349,7 +1334,7 @@
       </c>
       <c r="Y7" t="inlineStr">
         <is>
-          <t>2015-06-16</t>
+          <t>2016-01-31</t>
         </is>
       </c>
       <c r="Z7" t="inlineStr">
@@ -1359,7 +1344,7 @@
       </c>
       <c r="AA7" t="inlineStr">
         <is>
-          <t>2015-06-16</t>
+          <t>2016-01-31</t>
         </is>
       </c>
       <c r="AB7" t="inlineStr">
@@ -1375,6 +1360,11 @@
       </c>
       <c r="AG7" t="b">
         <v>0</v>
+      </c>
+      <c r="AO7" t="inlineStr">
+        <is>
+          <t>Granlåga</t>
+        </is>
       </c>
       <c r="AT7" t="inlineStr"/>
       <c r="AW7" t="inlineStr">
@@ -1391,7 +1381,7 @@
     </row>
     <row r="8">
       <c r="A8" t="n">
-        <v>56512393</v>
+        <v>56819680</v>
       </c>
       <c r="B8" t="n">
         <v>77575</v>
@@ -1431,10 +1421,10 @@
         </is>
       </c>
       <c r="Q8" t="n">
-        <v>661039.952110732</v>
+        <v>661319.2940217908</v>
       </c>
       <c r="R8" t="n">
-        <v>6982912.312919412</v>
+        <v>6982785.663003451</v>
       </c>
       <c r="S8" t="n">
         <v>10</v>
@@ -1461,7 +1451,7 @@
       </c>
       <c r="Y8" t="inlineStr">
         <is>
-          <t>2015-12-30</t>
+          <t>2016-01-31</t>
         </is>
       </c>
       <c r="Z8" t="inlineStr">
@@ -1471,7 +1461,7 @@
       </c>
       <c r="AA8" t="inlineStr">
         <is>
-          <t>2015-12-30</t>
+          <t>2016-01-31</t>
         </is>
       </c>
       <c r="AB8" t="inlineStr">
@@ -1490,7 +1480,7 @@
       </c>
       <c r="AO8" t="inlineStr">
         <is>
-          <t>Vindfälle av tall</t>
+          <t>Gran</t>
         </is>
       </c>
       <c r="AT8" t="inlineStr"/>
@@ -1508,10 +1498,10 @@
     </row>
     <row r="9">
       <c r="A9" t="n">
-        <v>56819687</v>
+        <v>56819681</v>
       </c>
       <c r="B9" t="n">
-        <v>89392</v>
+        <v>77575</v>
       </c>
       <c r="C9" t="inlineStr">
         <is>
@@ -1520,25 +1510,25 @@
       </c>
       <c r="D9" t="inlineStr">
         <is>
-          <t>NT</t>
+          <t>VU</t>
         </is>
       </c>
       <c r="E9" t="n">
-        <v>1202</v>
+        <v>637</v>
       </c>
       <c r="F9" t="inlineStr">
         <is>
-          <t>Ullticka</t>
+          <t>Ringlav</t>
         </is>
       </c>
       <c r="G9" t="inlineStr">
         <is>
-          <t>Phellinidium ferrugineofuscum</t>
+          <t>Evernia divaricata</t>
         </is>
       </c>
       <c r="H9" t="inlineStr">
         <is>
-          <t>(P.Karst.) Fiasson &amp; Niemelä</t>
+          <t>(L.) Ach.</t>
         </is>
       </c>
       <c r="I9" t="inlineStr"/>
@@ -1548,10 +1538,10 @@
         </is>
       </c>
       <c r="Q9" t="n">
-        <v>661403.3415067785</v>
+        <v>661119.4401709253</v>
       </c>
       <c r="R9" t="n">
-        <v>6982785.260969135</v>
+        <v>6983290.604943984</v>
       </c>
       <c r="S9" t="n">
         <v>10</v>
@@ -1596,6 +1586,11 @@
           <t>00:00</t>
         </is>
       </c>
+      <c r="AC9" t="inlineStr">
+        <is>
+          <t>Rikligt</t>
+        </is>
+      </c>
       <c r="AD9" t="b">
         <v>0</v>
       </c>
@@ -1605,9 +1600,14 @@
       <c r="AG9" t="b">
         <v>0</v>
       </c>
+      <c r="AI9" t="inlineStr">
+        <is>
+          <t>Myrkant</t>
+        </is>
+      </c>
       <c r="AO9" t="inlineStr">
         <is>
-          <t>Granlåga</t>
+          <t>Gran i myrkant</t>
         </is>
       </c>
       <c r="AT9" t="inlineStr"/>
@@ -1625,10 +1625,10 @@
     </row>
     <row r="10">
       <c r="A10" t="n">
-        <v>56819688</v>
+        <v>61001346</v>
       </c>
       <c r="B10" t="n">
-        <v>89356</v>
+        <v>89406</v>
       </c>
       <c r="C10" t="inlineStr">
         <is>
@@ -1637,25 +1637,25 @@
       </c>
       <c r="D10" t="inlineStr">
         <is>
-          <t>LC</t>
+          <t>NT</t>
         </is>
       </c>
       <c r="E10" t="n">
-        <v>5447</v>
+        <v>1204</v>
       </c>
       <c r="F10" t="inlineStr">
         <is>
-          <t>Vedticka</t>
+          <t>Gränsticka</t>
         </is>
       </c>
       <c r="G10" t="inlineStr">
         <is>
-          <t>Fuscoporia viticola</t>
+          <t>Phellopilus nigrolimitatus</t>
         </is>
       </c>
       <c r="H10" t="inlineStr">
         <is>
-          <t>(Schwein.) Murrill</t>
+          <t>(Romell) Niemelä, T.Wagner &amp; M.Fisch.</t>
         </is>
       </c>
       <c r="I10" t="inlineStr"/>
@@ -1665,10 +1665,10 @@
         </is>
       </c>
       <c r="Q10" t="n">
-        <v>661324.3496584925</v>
+        <v>661259.8128579003</v>
       </c>
       <c r="R10" t="n">
-        <v>6982821.939638772</v>
+        <v>6982769.496407314</v>
       </c>
       <c r="S10" t="n">
         <v>10</v>
@@ -1695,7 +1695,7 @@
       </c>
       <c r="Y10" t="inlineStr">
         <is>
-          <t>2016-01-31</t>
+          <t>2016-05-27</t>
         </is>
       </c>
       <c r="Z10" t="inlineStr">
@@ -1705,7 +1705,7 @@
       </c>
       <c r="AA10" t="inlineStr">
         <is>
-          <t>2016-01-31</t>
+          <t>2016-05-27</t>
         </is>
       </c>
       <c r="AB10" t="inlineStr">
@@ -1742,10 +1742,10 @@
     </row>
     <row r="11">
       <c r="A11" t="n">
-        <v>56819680</v>
+        <v>61001350</v>
       </c>
       <c r="B11" t="n">
-        <v>77575</v>
+        <v>85703</v>
       </c>
       <c r="C11" t="inlineStr">
         <is>
@@ -1754,25 +1754,25 @@
       </c>
       <c r="D11" t="inlineStr">
         <is>
-          <t>VU</t>
+          <t>NT</t>
         </is>
       </c>
       <c r="E11" t="n">
-        <v>637</v>
+        <v>510</v>
       </c>
       <c r="F11" t="inlineStr">
         <is>
-          <t>Ringlav</t>
+          <t>Doftskinn</t>
         </is>
       </c>
       <c r="G11" t="inlineStr">
         <is>
-          <t>Evernia divaricata</t>
+          <t>Cystostereum murrayi</t>
         </is>
       </c>
       <c r="H11" t="inlineStr">
         <is>
-          <t>(L.) Ach.</t>
+          <t>(Berk. &amp; M.A. Curtis.) Pouzar</t>
         </is>
       </c>
       <c r="I11" t="inlineStr"/>
@@ -1782,10 +1782,10 @@
         </is>
       </c>
       <c r="Q11" t="n">
-        <v>661319.2940217908</v>
+        <v>661461.9424078782</v>
       </c>
       <c r="R11" t="n">
-        <v>6982785.663003451</v>
+        <v>6982736.172976599</v>
       </c>
       <c r="S11" t="n">
         <v>10</v>
@@ -1812,7 +1812,7 @@
       </c>
       <c r="Y11" t="inlineStr">
         <is>
-          <t>2016-01-31</t>
+          <t>2016-05-27</t>
         </is>
       </c>
       <c r="Z11" t="inlineStr">
@@ -1822,7 +1822,7 @@
       </c>
       <c r="AA11" t="inlineStr">
         <is>
-          <t>2016-01-31</t>
+          <t>2016-05-27</t>
         </is>
       </c>
       <c r="AB11" t="inlineStr">
@@ -1841,7 +1841,7 @@
       </c>
       <c r="AO11" t="inlineStr">
         <is>
-          <t>Gran</t>
+          <t>Toppbruten grantorraka</t>
         </is>
       </c>
       <c r="AT11" t="inlineStr"/>
@@ -1859,10 +1859,10 @@
     </row>
     <row r="12">
       <c r="A12" t="n">
-        <v>61001346</v>
+        <v>61001348</v>
       </c>
       <c r="B12" t="n">
-        <v>89406</v>
+        <v>89356</v>
       </c>
       <c r="C12" t="inlineStr">
         <is>
@@ -1871,25 +1871,25 @@
       </c>
       <c r="D12" t="inlineStr">
         <is>
-          <t>NT</t>
+          <t>LC</t>
         </is>
       </c>
       <c r="E12" t="n">
-        <v>1204</v>
+        <v>5447</v>
       </c>
       <c r="F12" t="inlineStr">
         <is>
-          <t>Gränsticka</t>
+          <t>Vedticka</t>
         </is>
       </c>
       <c r="G12" t="inlineStr">
         <is>
-          <t>Phellopilus nigrolimitatus</t>
+          <t>Fuscoporia viticola</t>
         </is>
       </c>
       <c r="H12" t="inlineStr">
         <is>
-          <t>(Romell) Niemelä, T.Wagner &amp; M.Fisch.</t>
+          <t>(Schwein.) Murrill</t>
         </is>
       </c>
       <c r="I12" t="inlineStr"/>
@@ -1899,10 +1899,10 @@
         </is>
       </c>
       <c r="Q12" t="n">
-        <v>661259.8128579003</v>
+        <v>661327.4710092416</v>
       </c>
       <c r="R12" t="n">
-        <v>6982769.496407314</v>
+        <v>6982823.462128288</v>
       </c>
       <c r="S12" t="n">
         <v>10</v>
@@ -1976,10 +1976,10 @@
     </row>
     <row r="13">
       <c r="A13" t="n">
-        <v>61001350</v>
+        <v>61001347</v>
       </c>
       <c r="B13" t="n">
-        <v>85703</v>
+        <v>89410</v>
       </c>
       <c r="C13" t="inlineStr">
         <is>
@@ -1992,21 +1992,21 @@
         </is>
       </c>
       <c r="E13" t="n">
-        <v>510</v>
+        <v>5432</v>
       </c>
       <c r="F13" t="inlineStr">
         <is>
-          <t>Doftskinn</t>
+          <t>Granticka</t>
         </is>
       </c>
       <c r="G13" t="inlineStr">
         <is>
-          <t>Cystostereum murrayi</t>
+          <t>Porodaedalea chrysoloma</t>
         </is>
       </c>
       <c r="H13" t="inlineStr">
         <is>
-          <t>(Berk. &amp; M.A. Curtis.) Pouzar</t>
+          <t>(Fr.) Fiasson &amp; Niemelä</t>
         </is>
       </c>
       <c r="I13" t="inlineStr"/>
@@ -2016,10 +2016,10 @@
         </is>
       </c>
       <c r="Q13" t="n">
-        <v>661461.9424078782</v>
+        <v>661308.1689400133</v>
       </c>
       <c r="R13" t="n">
-        <v>6982736.172976599</v>
+        <v>6982844.396734924</v>
       </c>
       <c r="S13" t="n">
         <v>10</v>
@@ -2075,7 +2075,7 @@
       </c>
       <c r="AO13" t="inlineStr">
         <is>
-          <t>Toppbruten grantorraka</t>
+          <t>Granlåga i hyggeskant</t>
         </is>
       </c>
       <c r="AT13" t="inlineStr"/>
@@ -2093,10 +2093,10 @@
     </row>
     <row r="14">
       <c r="A14" t="n">
-        <v>61001348</v>
+        <v>62589587</v>
       </c>
       <c r="B14" t="n">
-        <v>89356</v>
+        <v>77541</v>
       </c>
       <c r="C14" t="inlineStr">
         <is>
@@ -2105,25 +2105,25 @@
       </c>
       <c r="D14" t="inlineStr">
         <is>
-          <t>LC</t>
+          <t>NT</t>
         </is>
       </c>
       <c r="E14" t="n">
-        <v>5447</v>
+        <v>185</v>
       </c>
       <c r="F14" t="inlineStr">
         <is>
-          <t>Vedticka</t>
+          <t>Violettgrå tagellav</t>
         </is>
       </c>
       <c r="G14" t="inlineStr">
         <is>
-          <t>Fuscoporia viticola</t>
+          <t>Bryoria nadvornikiana</t>
         </is>
       </c>
       <c r="H14" t="inlineStr">
         <is>
-          <t>(Schwein.) Murrill</t>
+          <t>(Gyeln.) Brodo &amp; D.Hawksw.</t>
         </is>
       </c>
       <c r="I14" t="inlineStr"/>
@@ -2133,10 +2133,10 @@
         </is>
       </c>
       <c r="Q14" t="n">
-        <v>661327.4710092416</v>
+        <v>661151.3102577352</v>
       </c>
       <c r="R14" t="n">
-        <v>6982823.462128288</v>
+        <v>6982885.892533752</v>
       </c>
       <c r="S14" t="n">
         <v>10</v>
@@ -2163,7 +2163,7 @@
       </c>
       <c r="Y14" t="inlineStr">
         <is>
-          <t>2016-05-27</t>
+          <t>2016-08-13</t>
         </is>
       </c>
       <c r="Z14" t="inlineStr">
@@ -2173,7 +2173,7 @@
       </c>
       <c r="AA14" t="inlineStr">
         <is>
-          <t>2016-05-27</t>
+          <t>2016-08-13</t>
         </is>
       </c>
       <c r="AB14" t="inlineStr">
@@ -2190,9 +2190,9 @@
       <c r="AG14" t="b">
         <v>0</v>
       </c>
-      <c r="AO14" t="inlineStr">
-        <is>
-          <t>Granlåga</t>
+      <c r="AI14" t="inlineStr">
+        <is>
+          <t>Gran</t>
         </is>
       </c>
       <c r="AT14" t="inlineStr"/>
@@ -2210,10 +2210,10 @@
     </row>
     <row r="15">
       <c r="A15" t="n">
-        <v>61001347</v>
+        <v>73768368</v>
       </c>
       <c r="B15" t="n">
-        <v>89410</v>
+        <v>77506</v>
       </c>
       <c r="C15" t="inlineStr">
         <is>
@@ -2226,21 +2226,21 @@
         </is>
       </c>
       <c r="E15" t="n">
-        <v>5432</v>
+        <v>6425</v>
       </c>
       <c r="F15" t="inlineStr">
         <is>
-          <t>Granticka</t>
+          <t>Garnlav</t>
         </is>
       </c>
       <c r="G15" t="inlineStr">
         <is>
-          <t>Porodaedalea chrysoloma</t>
+          <t>Alectoria sarmentosa</t>
         </is>
       </c>
       <c r="H15" t="inlineStr">
         <is>
-          <t>(Fr.) Fiasson &amp; Niemelä</t>
+          <t>(Ach.) Ach.</t>
         </is>
       </c>
       <c r="I15" t="inlineStr"/>
@@ -2250,10 +2250,10 @@
         </is>
       </c>
       <c r="Q15" t="n">
-        <v>661308.1689400133</v>
+        <v>661186.3500573931</v>
       </c>
       <c r="R15" t="n">
-        <v>6982844.396734924</v>
+        <v>6983220.956949593</v>
       </c>
       <c r="S15" t="n">
         <v>10</v>
@@ -2280,7 +2280,7 @@
       </c>
       <c r="Y15" t="inlineStr">
         <is>
-          <t>2016-05-27</t>
+          <t>2017-06-04</t>
         </is>
       </c>
       <c r="Z15" t="inlineStr">
@@ -2290,7 +2290,7 @@
       </c>
       <c r="AA15" t="inlineStr">
         <is>
-          <t>2016-05-27</t>
+          <t>2017-06-04</t>
         </is>
       </c>
       <c r="AB15" t="inlineStr">
@@ -2298,6 +2298,11 @@
           <t>00:00</t>
         </is>
       </c>
+      <c r="AC15" t="inlineStr">
+        <is>
+          <t>Gammelgran i myrkant</t>
+        </is>
+      </c>
       <c r="AD15" t="b">
         <v>0</v>
       </c>
@@ -2306,11 +2311,6 @@
       </c>
       <c r="AG15" t="b">
         <v>0</v>
-      </c>
-      <c r="AO15" t="inlineStr">
-        <is>
-          <t>Granlåga i hyggeskant</t>
-        </is>
       </c>
       <c r="AT15" t="inlineStr"/>
       <c r="AW15" t="inlineStr">
@@ -2327,10 +2327,10 @@
     </row>
     <row r="16">
       <c r="A16" t="n">
-        <v>62589587</v>
+        <v>73768370</v>
       </c>
       <c r="B16" t="n">
-        <v>77541</v>
+        <v>77575</v>
       </c>
       <c r="C16" t="inlineStr">
         <is>
@@ -2339,25 +2339,25 @@
       </c>
       <c r="D16" t="inlineStr">
         <is>
-          <t>NT</t>
+          <t>VU</t>
         </is>
       </c>
       <c r="E16" t="n">
-        <v>185</v>
+        <v>637</v>
       </c>
       <c r="F16" t="inlineStr">
         <is>
-          <t>Violettgrå tagellav</t>
+          <t>Ringlav</t>
         </is>
       </c>
       <c r="G16" t="inlineStr">
         <is>
-          <t>Bryoria nadvornikiana</t>
+          <t>Evernia divaricata</t>
         </is>
       </c>
       <c r="H16" t="inlineStr">
         <is>
-          <t>(Gyeln.) Brodo &amp; D.Hawksw.</t>
+          <t>(L.) Ach.</t>
         </is>
       </c>
       <c r="I16" t="inlineStr"/>
@@ -2367,10 +2367,10 @@
         </is>
       </c>
       <c r="Q16" t="n">
-        <v>661151.3102577352</v>
+        <v>661250.5804675129</v>
       </c>
       <c r="R16" t="n">
-        <v>6982885.892533752</v>
+        <v>6983196.318054067</v>
       </c>
       <c r="S16" t="n">
         <v>10</v>
@@ -2397,7 +2397,7 @@
       </c>
       <c r="Y16" t="inlineStr">
         <is>
-          <t>2016-08-13</t>
+          <t>2017-06-04</t>
         </is>
       </c>
       <c r="Z16" t="inlineStr">
@@ -2407,7 +2407,7 @@
       </c>
       <c r="AA16" t="inlineStr">
         <is>
-          <t>2016-08-13</t>
+          <t>2017-06-04</t>
         </is>
       </c>
       <c r="AB16" t="inlineStr">
@@ -2415,6 +2415,11 @@
           <t>00:00</t>
         </is>
       </c>
+      <c r="AC16" t="inlineStr">
+        <is>
+          <t>Gran i sumpskog</t>
+        </is>
+      </c>
       <c r="AD16" t="b">
         <v>0</v>
       </c>
@@ -2423,11 +2428,6 @@
       </c>
       <c r="AG16" t="b">
         <v>0</v>
-      </c>
-      <c r="AI16" t="inlineStr">
-        <is>
-          <t>Gran</t>
-        </is>
       </c>
       <c r="AT16" t="inlineStr"/>
       <c r="AW16" t="inlineStr">
